--- a/docs/timesheet.xlsx
+++ b/docs/timesheet.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sennevanfleteren/Code/cmp3.local/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
-    <sheet name="Timesheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -67,28 +83,83 @@
   <si>
     <t>Totaal</t>
   </si>
+  <si>
+    <t>MILESTONE 2 OPLEVEREN</t>
+  </si>
+  <si>
+    <t>Drupal | CMS downloaden en installeren</t>
+  </si>
+  <si>
+    <t>Drupal | Poging tot stylen</t>
+  </si>
+  <si>
+    <t>Drupal | Pagina's aanmaken en inhoud toevoegen</t>
+  </si>
+  <si>
+    <t>Drupal | Modules downloaden</t>
+  </si>
+  <si>
+    <t>Drupal | OG Groepen installleren</t>
+  </si>
+  <si>
+    <t>Drupal | Taxonomies toevoegen</t>
+  </si>
+  <si>
+    <t>Drupal | Stylen</t>
+  </si>
+  <si>
+    <t>Drupal | Organic groups</t>
+  </si>
+  <si>
+    <t>MILESTONE 3 OPLEVEREN</t>
+  </si>
+  <si>
+    <t>Drupal | Rollen toevoegen</t>
+  </si>
+  <si>
+    <t>Drupal | Modulles opnieuw downloaden</t>
+  </si>
+  <si>
+    <t>Drupal | Bartik thema aanpassen naar eigen thema</t>
+  </si>
+  <si>
+    <t>MILESTONE 4 OPLEVEREN</t>
+  </si>
+  <si>
+    <t>MILESTONE 4 ONLINE DEPLOYEN</t>
+  </si>
+  <si>
+    <t>Drupal | Gebruikers toevoegen, diensten toevoegen, pagina's toevoegen</t>
+  </si>
+  <si>
+    <t>Presentatie, productiedossier en timesheet afwerken</t>
+  </si>
+  <si>
+    <t>Drupal | Disclaimer, Privacy Policy, Login/Registreer</t>
+  </si>
+  <si>
+    <t>Drupal | Vereenvoudigde URL's bekomen</t>
+  </si>
+  <si>
+    <t>Drupal | Contactformulier</t>
+  </si>
+  <si>
+    <t>Drupal | Template stylen</t>
+  </si>
+  <si>
+    <t>Drupal | Nieuwe template aanmaken</t>
+  </si>
+  <si>
+    <t>Drupal | Herbeginnen (In MAMP ipv Mampstack)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/mm/yy"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -98,13 +169,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -115,7 +186,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -203,83 +274,136 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff2eab66"/>
-      <rgbColor rgb="ffdddddd"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF2EAB66"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Office-thema">
       <a:dk1>
@@ -481,7 +605,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -500,7 +624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -530,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -556,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -582,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -608,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -634,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -660,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -686,7 +810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -712,7 +836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -738,7 +862,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,9 +875,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -770,7 +900,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -789,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,9 +1166,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1052,7 +1188,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1071,7 +1207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1101,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1127,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1205,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1231,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1257,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1283,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +1445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,219 +1458,483 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.8984" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8281" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="19" customWidth="1"/>
     <col min="4" max="256" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.3" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" ht="20.75" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="17.8" customHeight="1">
-      <c r="A3" s="6">
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>42663</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" ht="17.8" customHeight="1">
-      <c r="A4" s="6">
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>42663</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" ht="19.9" customHeight="1">
-      <c r="A5" s="6">
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>42663</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" ht="19.9" customHeight="1">
-      <c r="A6" s="6">
+    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>42665</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" ht="19.9" customHeight="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>42665</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" ht="19.9" customHeight="1">
-      <c r="A8" s="6">
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>42667</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>1.75</v>
       </c>
     </row>
-    <row r="9" ht="19.9" customHeight="1">
-      <c r="A9" s="6">
+    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>42667</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>1.75</v>
       </c>
     </row>
-    <row r="10" ht="19.9" customHeight="1">
-      <c r="A10" s="6">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>42668</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" ht="19.9" customHeight="1">
-      <c r="A11" s="6">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>42668</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>2.25</v>
       </c>
     </row>
-    <row r="12" ht="19.9" customHeight="1">
-      <c r="A12" s="6">
+    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>42669</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="19.9" customHeight="1">
-      <c r="A13" s="6">
+    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>42669</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="17.8" customHeight="1">
-      <c r="A14" s="6">
+    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>42669</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" ht="17.8" customHeight="1">
-      <c r="A15" s="6">
+    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>42670</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" ht="19.9" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" ht="19.9" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" ht="19.9" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" ht="19.9" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" ht="28.95" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" t="s" s="13">
+    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>42682</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>42683</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>42684</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>42684</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>42702</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>42703</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>42713</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>42714</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>42715</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>42718</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>42721</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>42722</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>42723</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>42726</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>42727</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>42730</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>42731</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>42732</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>42733</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="13">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>42734</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="13">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>42737</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>42738</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>42738</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>42738</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="14">
-        <f>SUM(C3:C19)</f>
-        <v>21.5</v>
+      <c r="C41" s="9">
+        <f>SUM(C3:C39)</f>
+        <v>99.25</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1942,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
